--- a/app/src/main/assets/channels.xlsx
+++ b/app/src/main/assets/channels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju.kuangda/AndroidProjects/LiveDemo/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E90C9-D139-8745-9017-C5BB1020B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AF5AE9-4B6C-5342-8CA4-7B28FC4E1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="720" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>http://carksc.v.kcdnvip.com/car/udrmcctv1_1/index.m3u8?contentid=2820180516001</t>
   </si>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_chongqinghd02.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV1 综合(高清)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s01.cloud.vod01.icntvcdn.com/live/5643_c1.m3u8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -657,21 +668,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -679,10 +690,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -690,10 +701,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -701,10 +712,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -712,10 +723,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -723,10 +734,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -734,10 +745,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -745,10 +756,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -756,10 +767,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -767,10 +778,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -778,10 +789,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -789,10 +800,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -800,10 +811,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -811,10 +822,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -822,10 +833,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -833,21 +844,21 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -855,10 +866,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -866,10 +877,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -877,10 +888,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -888,10 +899,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -899,10 +910,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -910,10 +921,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -921,10 +932,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -932,10 +943,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -943,45 +954,57 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
       <c r="C29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{C572312E-6BE0-F640-8D27-CA3AEA9AFC8D}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{BB40FDA1-9672-2D4B-8D81-B0BD0C6A5FEA}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{8FFEB097-E563-0B40-84C2-8B45480B8B2B}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{CEF05C7F-5B02-A540-8222-4DC19C865AF2}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{65BFB643-F187-3444-8E4B-EB2DC16B2D33}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{360BA4FE-6A1B-0248-8478-261D60AFFC8F}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{D7C9672A-0D5F-234C-99AA-789920D8BCE1}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{3D292E1D-E1AE-ED49-893F-532F3F7DBE02}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{CBDC0412-3FC3-F745-84DB-D299F3F66216}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{BBEE4480-8FD0-034B-9D70-97E4082B1DCD}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{8445894C-A913-4740-8782-EE28B4354E8B}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{9766DD5F-0840-BE4F-864C-071D41A93CEA}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{DEBD2AEA-D69D-DE48-8F49-602576E18139}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{D0AA5D47-E8F3-AB44-B31E-348CE5976515}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{B6D06B3F-383F-6549-BF63-16CD055762DB}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{A8264629-1B77-BF47-9B52-00F5EFBC9D06}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{B8E5BEEE-59C7-2244-819A-9C24E6C57994}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{6B0C7C76-4B89-564A-8D9C-352E673121E5}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{92EC7345-464A-B94F-B781-B654908BFD2F}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{1DBF2822-0F95-1349-BFD8-D8765924D76B}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{6C5005BE-5AA9-B449-955F-6CCB85B11021}"/>
-    <hyperlink ref="B28" r:id="rId22" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{C572312E-6BE0-F640-8D27-CA3AEA9AFC8D}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{BB40FDA1-9672-2D4B-8D81-B0BD0C6A5FEA}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{8FFEB097-E563-0B40-84C2-8B45480B8B2B}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{CEF05C7F-5B02-A540-8222-4DC19C865AF2}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{65BFB643-F187-3444-8E4B-EB2DC16B2D33}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{360BA4FE-6A1B-0248-8478-261D60AFFC8F}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{D7C9672A-0D5F-234C-99AA-789920D8BCE1}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{3D292E1D-E1AE-ED49-893F-532F3F7DBE02}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{CBDC0412-3FC3-F745-84DB-D299F3F66216}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{BBEE4480-8FD0-034B-9D70-97E4082B1DCD}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{8445894C-A913-4740-8782-EE28B4354E8B}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{9766DD5F-0840-BE4F-864C-071D41A93CEA}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{DEBD2AEA-D69D-DE48-8F49-602576E18139}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{D0AA5D47-E8F3-AB44-B31E-348CE5976515}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{B6D06B3F-383F-6549-BF63-16CD055762DB}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{A8264629-1B77-BF47-9B52-00F5EFBC9D06}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{B8E5BEEE-59C7-2244-819A-9C24E6C57994}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{6B0C7C76-4B89-564A-8D9C-352E673121E5}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{92EC7345-464A-B94F-B781-B654908BFD2F}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{1DBF2822-0F95-1349-BFD8-D8765924D76B}"/>
+    <hyperlink ref="B27" r:id="rId21" xr:uid="{6C5005BE-5AA9-B449-955F-6CCB85B11021}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
+    <hyperlink ref="B2" r:id="rId23" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/channels.xlsx
+++ b/app/src/main/assets/channels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju.kuangda/AndroidProjects/LiveDemo/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AF5AE9-4B6C-5342-8CA4-7B28FC4E1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F10A74-7406-C441-B5CE-13302073CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="720" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>http://carksc.v.kcdnvip.com/car/udrmcctv1_1/index.m3u8?contentid=2820180516001</t>
   </si>
@@ -253,6 +253,14 @@
   </si>
   <si>
     <t>http://s01.cloud.vod01.icntvcdn.com/live/5643_c1.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tiyuksc.v.kcdnvip.com/tiyu/udrmcctv16_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV16 奥林匹克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -855,21 +863,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -877,10 +885,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -888,10 +896,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -899,10 +907,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -910,10 +918,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -921,10 +929,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -932,10 +940,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -943,10 +951,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -954,10 +962,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -965,17 +973,28 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
       <c r="C30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="3">
         <v>2</v>
       </c>
     </row>
@@ -997,14 +1016,15 @@
     <hyperlink ref="B16" r:id="rId13" xr:uid="{DEBD2AEA-D69D-DE48-8F49-602576E18139}"/>
     <hyperlink ref="B17" r:id="rId14" xr:uid="{D0AA5D47-E8F3-AB44-B31E-348CE5976515}"/>
     <hyperlink ref="B18" r:id="rId15" xr:uid="{B6D06B3F-383F-6549-BF63-16CD055762DB}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{A8264629-1B77-BF47-9B52-00F5EFBC9D06}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{B8E5BEEE-59C7-2244-819A-9C24E6C57994}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{6B0C7C76-4B89-564A-8D9C-352E673121E5}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{92EC7345-464A-B94F-B781-B654908BFD2F}"/>
-    <hyperlink ref="B26" r:id="rId20" xr:uid="{1DBF2822-0F95-1349-BFD8-D8765924D76B}"/>
-    <hyperlink ref="B27" r:id="rId21" xr:uid="{6C5005BE-5AA9-B449-955F-6CCB85B11021}"/>
-    <hyperlink ref="B29" r:id="rId22" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{A8264629-1B77-BF47-9B52-00F5EFBC9D06}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{B8E5BEEE-59C7-2244-819A-9C24E6C57994}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{6B0C7C76-4B89-564A-8D9C-352E673121E5}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{92EC7345-464A-B94F-B781-B654908BFD2F}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{1DBF2822-0F95-1349-BFD8-D8765924D76B}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{6C5005BE-5AA9-B449-955F-6CCB85B11021}"/>
+    <hyperlink ref="B30" r:id="rId22" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
     <hyperlink ref="B2" r:id="rId23" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
+    <hyperlink ref="B19" r:id="rId24" xr:uid="{4F0FC067-C8CF-7243-9E59-54C59158CD89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/channels.xlsx
+++ b/app/src/main/assets/channels.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju.kuangda/AndroidProjects/LiveDemo/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F10A74-7406-C441-B5CE-13302073CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64896E2B-ACBA-964C-9A41-6060919F9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="720" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
+    <workbookView xWindow="37420" yWindow="5580" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$31</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,69 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv1_1/index.m3u8?contentid=2820180516001</t>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv2_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv3_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv4_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv5_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv5plus_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv6_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv7_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv8_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctvjilu_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv10_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv11_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv12_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv13_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctvchild_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carksc.v.kcdnvip.com/car/udrmcctv15_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CCTV1 综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,11 +196,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://tiyuksc.v.kcdnvip.com/tiyu/udrmcctv16_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CCTV16 奥林匹克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv1_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv2_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv3_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv4_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv5_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv5plus_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv6_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv7_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv8_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv10_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv11_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv12_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv13_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv15_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv16_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv9_1/index.m3u8?contentid=2820180516001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv14_1/index.m3u8?contentid=2820180516001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -663,177 +667,179 @@
     <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -841,10 +847,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -852,10 +858,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -863,10 +869,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -874,10 +880,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -885,10 +891,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -896,10 +902,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -907,10 +913,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -918,10 +924,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -929,10 +935,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -940,10 +946,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -951,10 +957,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -962,10 +968,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -973,10 +979,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -984,10 +990,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
@@ -999,6 +1005,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C31" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{C572312E-6BE0-F640-8D27-CA3AEA9AFC8D}"/>
@@ -1025,6 +1032,7 @@
     <hyperlink ref="B30" r:id="rId22" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
     <hyperlink ref="B2" r:id="rId23" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
     <hyperlink ref="B19" r:id="rId24" xr:uid="{4F0FC067-C8CF-7243-9E59-54C59158CD89}"/>
+    <hyperlink ref="B3" r:id="rId25" xr:uid="{9708AED7-F087-3641-9180-FA4B57ACC270}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/channels.xlsx
+++ b/app/src/main/assets/channels.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju.kuangda/AndroidProjects/LiveDemo/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64896E2B-ACBA-964C-9A41-6060919F9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE42E0B8-139C-2E4F-ABDC-DD1F5293BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37420" yWindow="5580" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
+    <workbookView xWindow="50760" yWindow="5540" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>CCTV1 综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,72 +200,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv1_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv2_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv3_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv4_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv5_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv5plus_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv6_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv7_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv8_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv10_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv11_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv12_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv13_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv15_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv16_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv9_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv14_1/index.m3u8?contentid=2820180516001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>cctv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctveurope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-4 中文国际(美)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-4 中文国际(欧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctvamerica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv5</t>
+  </si>
+  <si>
+    <t>cctv5plus</t>
+  </si>
+  <si>
+    <t>cctv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv7</t>
+  </si>
+  <si>
+    <t>cctv8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctvjilu</t>
+  </si>
+  <si>
+    <t>cctv10</t>
+  </si>
+  <si>
+    <t>cctv11</t>
+  </si>
+  <si>
+    <t>cctv12</t>
+  </si>
+  <si>
+    <t>cctv13</t>
+  </si>
+  <si>
+    <t>cctvchild</t>
+  </si>
+  <si>
+    <t>cctv15</t>
+  </si>
+  <si>
+    <t>cctv16</t>
   </si>
 </sst>
 </file>
@@ -654,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -697,7 +702,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -708,7 +713,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -719,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -730,182 +735,182 @@
         <v>47</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -913,10 +918,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -924,10 +929,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -935,10 +940,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -946,10 +951,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -957,10 +962,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -968,10 +973,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -979,10 +984,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -990,49 +995,59 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="3">
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C31" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}"/>
+  <autoFilter ref="A1:C33" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{C572312E-6BE0-F640-8D27-CA3AEA9AFC8D}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{BB40FDA1-9672-2D4B-8D81-B0BD0C6A5FEA}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{8FFEB097-E563-0B40-84C2-8B45480B8B2B}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{CEF05C7F-5B02-A540-8222-4DC19C865AF2}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{65BFB643-F187-3444-8E4B-EB2DC16B2D33}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{360BA4FE-6A1B-0248-8478-261D60AFFC8F}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{D7C9672A-0D5F-234C-99AA-789920D8BCE1}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{3D292E1D-E1AE-ED49-893F-532F3F7DBE02}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{CBDC0412-3FC3-F745-84DB-D299F3F66216}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{BBEE4480-8FD0-034B-9D70-97E4082B1DCD}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{8445894C-A913-4740-8782-EE28B4354E8B}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{9766DD5F-0840-BE4F-864C-071D41A93CEA}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{DEBD2AEA-D69D-DE48-8F49-602576E18139}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{D0AA5D47-E8F3-AB44-B31E-348CE5976515}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{B6D06B3F-383F-6549-BF63-16CD055762DB}"/>
-    <hyperlink ref="B22" r:id="rId16" xr:uid="{A8264629-1B77-BF47-9B52-00F5EFBC9D06}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{B8E5BEEE-59C7-2244-819A-9C24E6C57994}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{6B0C7C76-4B89-564A-8D9C-352E673121E5}"/>
-    <hyperlink ref="B25" r:id="rId19" xr:uid="{92EC7345-464A-B94F-B781-B654908BFD2F}"/>
-    <hyperlink ref="B27" r:id="rId20" xr:uid="{1DBF2822-0F95-1349-BFD8-D8765924D76B}"/>
-    <hyperlink ref="B28" r:id="rId21" xr:uid="{6C5005BE-5AA9-B449-955F-6CCB85B11021}"/>
-    <hyperlink ref="B30" r:id="rId22" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
-    <hyperlink ref="B2" r:id="rId23" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
-    <hyperlink ref="B19" r:id="rId24" xr:uid="{4F0FC067-C8CF-7243-9E59-54C59158CD89}"/>
-    <hyperlink ref="B3" r:id="rId25" xr:uid="{9708AED7-F087-3641-9180-FA4B57ACC270}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv2_1/index.m3u8?contentid=2820180516001" xr:uid="{C572312E-6BE0-F640-8D27-CA3AEA9AFC8D}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv3_1/index.m3u8?contentid=2820180516001" xr:uid="{BB40FDA1-9672-2D4B-8D81-B0BD0C6A5FEA}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv4_1/index.m3u8?contentid=2820180516001" xr:uid="{8FFEB097-E563-0B40-84C2-8B45480B8B2B}"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv8_1/index.m3u8?contentid=2820180516001" xr:uid="{3D292E1D-E1AE-ED49-893F-532F3F7DBE02}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{A8264629-1B77-BF47-9B52-00F5EFBC9D06}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{B8E5BEEE-59C7-2244-819A-9C24E6C57994}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{6B0C7C76-4B89-564A-8D9C-352E673121E5}"/>
+    <hyperlink ref="B27" r:id="rId8" xr:uid="{92EC7345-464A-B94F-B781-B654908BFD2F}"/>
+    <hyperlink ref="B29" r:id="rId9" xr:uid="{1DBF2822-0F95-1349-BFD8-D8765924D76B}"/>
+    <hyperlink ref="B30" r:id="rId10" xr:uid="{6C5005BE-5AA9-B449-955F-6CCB85B11021}"/>
+    <hyperlink ref="B32" r:id="rId11" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
+    <hyperlink ref="B2" r:id="rId12" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
+    <hyperlink ref="B3" r:id="rId13" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv1_1/index.m3u8?contentid=2820180516001" xr:uid="{9708AED7-F087-3641-9180-FA4B57ACC270}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/channels.xlsx
+++ b/app/src/main/assets/channels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju.kuangda/AndroidProjects/LiveDemo/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE42E0B8-139C-2E4F-ABDC-DD1F5293BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71572F5C-3E64-A843-A4C3-4B3F8D4B38B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50760" yWindow="5540" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
+    <workbookView xWindow="1800" yWindow="860" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>CCTV1 综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,171 +106,285 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>东方卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁卫视</t>
+  </si>
+  <si>
+    <t>山东卫视</t>
+  </si>
+  <si>
+    <t>深圳卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV1 综合(高清)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s01.cloud.vod01.icntvcdn.com/live/5643_c1.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV16 奥林匹克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctveurope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-4 中文国际(美)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-4 中文国际(欧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctvamerica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv5</t>
+  </si>
+  <si>
+    <t>cctv5plus</t>
+  </si>
+  <si>
+    <t>cctv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv7</t>
+  </si>
+  <si>
+    <t>cctv8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctvjilu</t>
+  </si>
+  <si>
+    <t>cctv10</t>
+  </si>
+  <si>
+    <t>cctv11</t>
+  </si>
+  <si>
+    <t>cctv12</t>
+  </si>
+  <si>
+    <t>cctv13</t>
+  </si>
+  <si>
+    <t>cctvchild</t>
+  </si>
+  <si>
+    <t>cctv15</t>
+  </si>
+  <si>
+    <t>cctv16</t>
+  </si>
+  <si>
+    <t>北京卫视</t>
+  </si>
+  <si>
     <t>安徽卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_anhuihd02.m3u8</t>
-  </si>
-  <si>
-    <t>北京卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anhui</t>
+  </si>
+  <si>
+    <t>btv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongfang</t>
+  </si>
+  <si>
+    <t>dongnan</t>
+  </si>
+  <si>
+    <t>东南卫视</t>
+  </si>
+  <si>
+    <t>guangdong</t>
   </si>
   <si>
     <t>广东卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁卫视</t>
-  </si>
-  <si>
-    <t>山东卫视</t>
-  </si>
-  <si>
-    <t>深圳卫视</t>
+  </si>
+  <si>
+    <t>guangxi</t>
+  </si>
+  <si>
+    <t>广西卫视</t>
+  </si>
+  <si>
+    <t>gansu</t>
+  </si>
+  <si>
+    <t>甘肃卫视</t>
+  </si>
+  <si>
+    <t>guizhou</t>
+  </si>
+  <si>
+    <t>贵州卫视</t>
+  </si>
+  <si>
+    <t>河北卫视</t>
+  </si>
+  <si>
+    <t>hebei</t>
+  </si>
+  <si>
+    <t>yunnan</t>
+  </si>
+  <si>
+    <t>云南卫视</t>
+  </si>
+  <si>
+    <t>henan</t>
+  </si>
+  <si>
+    <t>河南卫视</t>
+  </si>
+  <si>
+    <t>heilongjiang</t>
+  </si>
+  <si>
+    <t>hubei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jilin</t>
+  </si>
+  <si>
+    <t>吉林卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongqing</t>
+  </si>
+  <si>
+    <t>重庆卫视</t>
+  </si>
+  <si>
+    <t>jiangxi</t>
+  </si>
+  <si>
+    <t>江西卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaoning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>海南卫视</t>
+  </si>
+  <si>
+    <t>neimenggu</t>
+  </si>
+  <si>
+    <t>内蒙古卫视</t>
+  </si>
+  <si>
+    <t>宁夏卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ningxia</t>
+  </si>
+  <si>
+    <t>qinghai</t>
+  </si>
+  <si>
+    <t>青海卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shandong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenzhen</t>
+  </si>
+  <si>
+    <t>shan3xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西卫视</t>
+  </si>
+  <si>
+    <t>shan1xi</t>
+  </si>
+  <si>
+    <t>山西卫视</t>
+  </si>
+  <si>
+    <t>sichuan</t>
+  </si>
+  <si>
+    <t>四川卫视</t>
+  </si>
+  <si>
+    <t>tianjin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天津卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_beijinghd02.m3u8</t>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_dongfanghd02.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_guangdonghd02.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_heilongjianghd02.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_hubeihd02.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_liaoninghd02.m3u8</t>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_shandonghd02.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_shenzhenhd02.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_tianjinhd02.m3u8</t>
-  </si>
-  <si>
-    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_chongqinghd02.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV1 综合(高清)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://s01.cloud.vod01.icntvcdn.com/live/5643_c1.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV16 奥林匹克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctveurope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV-4 中文国际(美)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV-4 中文国际(欧)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctvamerica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctv5</t>
-  </si>
-  <si>
-    <t>cctv5plus</t>
-  </si>
-  <si>
-    <t>cctv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctv7</t>
-  </si>
-  <si>
-    <t>cctv8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cctvjilu</t>
-  </si>
-  <si>
-    <t>cctv10</t>
-  </si>
-  <si>
-    <t>cctv11</t>
-  </si>
-  <si>
-    <t>cctv12</t>
-  </si>
-  <si>
-    <t>cctv13</t>
-  </si>
-  <si>
-    <t>cctvchild</t>
-  </si>
-  <si>
-    <t>cctv15</t>
-  </si>
-  <si>
-    <t>cctv16</t>
+  </si>
+  <si>
+    <t>xizang</t>
+  </si>
+  <si>
+    <t>西藏卫视</t>
+  </si>
+  <si>
+    <t>xinjiang</t>
+  </si>
+  <si>
+    <t>新疆卫视</t>
+  </si>
+  <si>
+    <t>xianggangweishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -685,10 +799,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -699,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -710,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -721,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -732,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -740,10 +854,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -751,10 +865,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -765,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -778,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -789,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -800,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -811,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -822,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -833,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -844,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -855,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -866,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -877,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -888,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -896,10 +1010,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -907,128 +1021,332 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
       <c r="C33" s="3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1039,15 +1357,8 @@
     <hyperlink ref="B5" r:id="rId2" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv3_1/index.m3u8?contentid=2820180516001" xr:uid="{BB40FDA1-9672-2D4B-8D81-B0BD0C6A5FEA}"/>
     <hyperlink ref="B6" r:id="rId3" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv4_1/index.m3u8?contentid=2820180516001" xr:uid="{8FFEB097-E563-0B40-84C2-8B45480B8B2B}"/>
     <hyperlink ref="B13" r:id="rId4" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv8_1/index.m3u8?contentid=2820180516001" xr:uid="{3D292E1D-E1AE-ED49-893F-532F3F7DBE02}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{A8264629-1B77-BF47-9B52-00F5EFBC9D06}"/>
-    <hyperlink ref="B25" r:id="rId6" xr:uid="{B8E5BEEE-59C7-2244-819A-9C24E6C57994}"/>
-    <hyperlink ref="B26" r:id="rId7" xr:uid="{6B0C7C76-4B89-564A-8D9C-352E673121E5}"/>
-    <hyperlink ref="B27" r:id="rId8" xr:uid="{92EC7345-464A-B94F-B781-B654908BFD2F}"/>
-    <hyperlink ref="B29" r:id="rId9" xr:uid="{1DBF2822-0F95-1349-BFD8-D8765924D76B}"/>
-    <hyperlink ref="B30" r:id="rId10" xr:uid="{6C5005BE-5AA9-B449-955F-6CCB85B11021}"/>
-    <hyperlink ref="B32" r:id="rId11" xr:uid="{93CAAD3B-2CD4-EE46-981E-D5753B4C0889}"/>
-    <hyperlink ref="B2" r:id="rId12" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
-    <hyperlink ref="B3" r:id="rId13" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv1_1/index.m3u8?contentid=2820180516001" xr:uid="{9708AED7-F087-3641-9180-FA4B57ACC270}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
+    <hyperlink ref="B3" r:id="rId6" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv1_1/index.m3u8?contentid=2820180516001" xr:uid="{9708AED7-F087-3641-9180-FA4B57ACC270}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/main/assets/channels.xlsx
+++ b/app/src/main/assets/channels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju.kuangda/AndroidProjects/LiveDemo/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71572F5C-3E64-A843-A4C3-4B3F8D4B38B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59678CCE-4442-1345-8FD9-391729A17513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="860" windowWidth="24940" windowHeight="14180" xr2:uid="{868CF72E-1EF3-1244-AC3E-B8BD7F2C8CFE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$53</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>CCTV1 综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>香港卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV17 农业农村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_zhejianghd02.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s03.cloud.vod01.icntvcdn.com/livehd2m/5643_hunanhd02.m3u8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1021,10 +1045,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
+        <v>103</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -1032,10 +1056,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -1043,10 +1067,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -1054,10 +1078,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1065,10 +1089,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -1076,10 +1100,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -1087,10 +1111,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -1098,10 +1122,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -1109,10 +1133,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1120,21 +1144,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
@@ -1142,10 +1166,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -1153,10 +1177,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -1164,10 +1188,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -1175,10 +1199,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
@@ -1186,21 +1210,21 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -1208,10 +1232,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
@@ -1219,10 +1243,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
@@ -1230,10 +1254,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -1241,10 +1265,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
@@ -1252,10 +1276,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
@@ -1263,10 +1287,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
@@ -1274,10 +1298,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
@@ -1285,10 +1309,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
@@ -1296,10 +1320,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
@@ -1307,10 +1331,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3">
         <v>3</v>
@@ -1318,10 +1342,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
@@ -1340,17 +1364,50 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C54" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C33" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}"/>
+  <autoFilter ref="A1:C53" xr:uid="{666A9B7C-A725-EA42-A007-93E18C0255A8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv2_1/index.m3u8?contentid=2820180516001" xr:uid="{C572312E-6BE0-F640-8D27-CA3AEA9AFC8D}"/>
@@ -1359,6 +1416,8 @@
     <hyperlink ref="B13" r:id="rId4" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv8_1/index.m3u8?contentid=2820180516001" xr:uid="{3D292E1D-E1AE-ED49-893F-532F3F7DBE02}"/>
     <hyperlink ref="B2" r:id="rId5" xr:uid="{46D4CE59-FCF7-1643-8D94-14F7D7167AED}"/>
     <hyperlink ref="B3" r:id="rId6" display="https://tpccudali.v.myalicdn.com/tpccud/udrmtpcctv1_1/index.m3u8?contentid=2820180516001" xr:uid="{9708AED7-F087-3641-9180-FA4B57ACC270}"/>
+    <hyperlink ref="B31" r:id="rId7" xr:uid="{F15BEB55-AFDB-BE4F-97D9-5DD9D6BDEACA}"/>
+    <hyperlink ref="B37" r:id="rId8" xr:uid="{5E91715E-3E8F-6744-90C1-60E367EFFF34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
